--- a/meetings/Meeting02_w5_Gantt_Chart_initial.xlsx
+++ b/meetings/Meeting02_w5_Gantt_Chart_initial.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/didier/ads2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/didier/agile/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B3CED359-7BB8-2A41-B7A4-5DFDC0EBDAFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C65684CB-11EE-5545-8D55-6A254F3D0E68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="880" yWindow="1540" windowWidth="32240" windowHeight="19920" xr2:uid="{34302D43-7813-3448-962A-77820EAB5823}"/>
+    <workbookView xWindow="5520" yWindow="1500" windowWidth="32240" windowHeight="19920" xr2:uid="{34302D43-7813-3448-962A-77820EAB5823}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="63">
   <si>
     <t>w1</t>
   </si>
@@ -104,9 +104,6 @@
     <t>Development Buffer</t>
   </si>
   <si>
-    <t>Friday 17-Jun</t>
-  </si>
-  <si>
     <t>X</t>
   </si>
   <si>
@@ -122,12 +119,6 @@
     <t>Target Submission part 2</t>
   </si>
   <si>
-    <t>Friday 26-Aug</t>
-  </si>
-  <si>
-    <t>latest: Friday 9-Sep</t>
-  </si>
-  <si>
     <t>Define Project Idea</t>
   </si>
   <si>
@@ -213,13 +204,31 @@
   </si>
   <si>
     <t>Build and keep updating</t>
+  </si>
+  <si>
+    <t>Friday 10-Jun</t>
+  </si>
+  <si>
+    <t>officially: 27-Jun  3pm</t>
+  </si>
+  <si>
+    <t>Friday 19-Aug</t>
+  </si>
+  <si>
+    <t>officially: 5-Sep  3pm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 weeks: </t>
+  </si>
+  <si>
+    <t>19-Aug to Friday 5-Sep</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -236,6 +245,13 @@
     <font>
       <sz val="12"/>
       <color theme="0" tint="-0.34998626667073579"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF7030A0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -491,7 +507,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -502,9 +518,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="16" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
@@ -514,11 +527,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -534,6 +543,17 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -854,7 +874,7 @@
   <dimension ref="A1:P60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P22" sqref="P22"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -867,876 +887,878 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="F1" s="6">
+      <c r="F1" s="29">
+        <v>44655</v>
+      </c>
+      <c r="G1" s="29">
         <v>44662</v>
       </c>
-      <c r="G1" s="6">
+      <c r="H1" s="29">
         <v>44669</v>
       </c>
-      <c r="H1" s="6">
+      <c r="I1" s="30">
         <v>44676</v>
       </c>
-      <c r="I1" s="1">
+      <c r="J1" s="30">
         <v>44683</v>
       </c>
-      <c r="J1" s="1">
+      <c r="K1" s="30">
         <v>44690</v>
       </c>
-      <c r="K1" s="1">
+      <c r="L1" s="30">
         <v>44697</v>
       </c>
-      <c r="L1" s="1">
+      <c r="M1" s="30">
         <v>44704</v>
       </c>
-      <c r="M1" s="1">
+      <c r="N1" s="30">
         <v>44711</v>
       </c>
-      <c r="N1" s="1">
+      <c r="O1" s="30">
         <v>44718</v>
       </c>
-      <c r="O1" s="1">
-        <v>44725</v>
-      </c>
-      <c r="P1" s="15" t="s">
-        <v>25</v>
+      <c r="P1" s="14" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="E2" s="12"/>
-      <c r="F2" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="E2" s="11"/>
+      <c r="F2" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="22" t="s">
+      <c r="G2" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="22" t="s">
+      <c r="H2" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="12" t="s">
+      <c r="I2" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="12" t="s">
+      <c r="J2" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="K2" s="12" t="s">
+      <c r="K2" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="L2" s="12" t="s">
+      <c r="L2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="M2" s="12" t="s">
+      <c r="M2" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="N2" s="12" t="s">
+      <c r="N2" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="O2" s="13" t="s">
+      <c r="O2" s="12" t="s">
         <v>9</v>
       </c>
       <c r="P2" s="4" t="s">
-        <v>23</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="8">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="I3" s="21"/>
+      <c r="J3" s="21"/>
+      <c r="K3" s="21"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="8"/>
+      <c r="N3" s="8"/>
+      <c r="O3" s="13"/>
+      <c r="P3" s="32" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B4" s="6"/>
+      <c r="C4" s="6">
+        <v>1.2</v>
+      </c>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="9">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="F3" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="G3" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="H3" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="I3" s="26"/>
-      <c r="J3" s="26"/>
-      <c r="K3" s="26"/>
-      <c r="L3" s="9"/>
-      <c r="M3" s="9"/>
-      <c r="N3" s="9"/>
-      <c r="O3" s="14"/>
-      <c r="P3" s="16"/>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B4" s="7"/>
-      <c r="C4" s="7">
-        <v>1.2</v>
-      </c>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="H4" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="I4" s="27"/>
-      <c r="J4" s="27"/>
-      <c r="K4" s="27"/>
-      <c r="L4" s="7"/>
-      <c r="M4" s="7"/>
-      <c r="N4" s="7"/>
-      <c r="O4" s="7"/>
+      <c r="F4" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="I4" s="22"/>
+      <c r="J4" s="22"/>
+      <c r="K4" s="22"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="6"/>
+      <c r="O4" s="6"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B5" s="7"/>
-      <c r="C5" s="7">
+      <c r="B5" s="6"/>
+      <c r="C5" s="6">
         <v>1.3</v>
       </c>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="G5" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="H5" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="I5" s="27"/>
-      <c r="J5" s="27"/>
-      <c r="K5" s="27"/>
-      <c r="L5" s="7"/>
-      <c r="M5" s="7"/>
-      <c r="N5" s="7"/>
-      <c r="O5" s="7"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="I5" s="22"/>
+      <c r="J5" s="22"/>
+      <c r="K5" s="22"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="6"/>
+      <c r="N5" s="6"/>
+      <c r="O5" s="6"/>
     </row>
     <row r="6" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="25"/>
-      <c r="B6" s="23"/>
-      <c r="C6" s="23">
+      <c r="A6" s="20"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="18">
         <v>1.4</v>
       </c>
-      <c r="D6" s="23"/>
-      <c r="E6" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="F6" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="G6" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="H6" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="I6" s="30"/>
-      <c r="J6" s="30"/>
-      <c r="K6" s="30"/>
-      <c r="L6" s="23"/>
-      <c r="M6" s="23"/>
-      <c r="N6" s="23"/>
-      <c r="O6" s="23"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="F6" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="H6" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="I6" s="25"/>
+      <c r="J6" s="25"/>
+      <c r="K6" s="25"/>
+      <c r="L6" s="18"/>
+      <c r="M6" s="18"/>
+      <c r="N6" s="18"/>
+      <c r="O6" s="18"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>2</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C7" s="8">
+        <v>2.1</v>
+      </c>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="C7" s="9">
-        <v>2.1</v>
-      </c>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="F7" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="G7" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="H7" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
-      <c r="K7" s="29"/>
-      <c r="L7" s="29"/>
-      <c r="M7" s="29"/>
-      <c r="N7" s="29"/>
-      <c r="O7" s="29"/>
+      <c r="F7" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="24"/>
+      <c r="L7" s="24"/>
+      <c r="M7" s="24"/>
+      <c r="N7" s="24"/>
+      <c r="O7" s="24"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B8" s="7"/>
-      <c r="C8" s="7">
+      <c r="B8" s="6"/>
+      <c r="C8" s="6">
         <v>2.2000000000000002</v>
       </c>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="G8" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="H8" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="28"/>
-      <c r="L8" s="28"/>
-      <c r="M8" s="28"/>
-      <c r="N8" s="28"/>
-      <c r="O8" s="28"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="23"/>
+      <c r="L8" s="23"/>
+      <c r="M8" s="23"/>
+      <c r="N8" s="23"/>
+      <c r="O8" s="23"/>
     </row>
     <row r="9" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="25"/>
-      <c r="B9" s="23"/>
-      <c r="C9" s="23">
+      <c r="A9" s="20"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="18">
         <v>2.2999999999999998</v>
       </c>
-      <c r="D9" s="23"/>
-      <c r="E9" s="23"/>
-      <c r="F9" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="G9" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="H9" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="I9" s="23"/>
-      <c r="J9" s="23"/>
-      <c r="K9" s="31"/>
-      <c r="L9" s="31"/>
-      <c r="M9" s="31"/>
-      <c r="N9" s="31"/>
-      <c r="O9" s="31"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="G9" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="H9" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="I9" s="18"/>
+      <c r="J9" s="18"/>
+      <c r="K9" s="26"/>
+      <c r="L9" s="26"/>
+      <c r="M9" s="26"/>
+      <c r="N9" s="26"/>
+      <c r="O9" s="26"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>3</v>
       </c>
-      <c r="B10" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="C10" s="9">
+      <c r="B10" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" s="8">
         <v>3.1</v>
       </c>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9" t="s">
+      <c r="D10" s="8"/>
+      <c r="E10" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="H10" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="I10" s="8"/>
+      <c r="J10" s="21"/>
+      <c r="K10" s="21"/>
+      <c r="L10" s="21"/>
+      <c r="M10" s="21"/>
+      <c r="N10" s="21"/>
+      <c r="O10" s="21"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B11" s="6"/>
+      <c r="C11" s="6">
+        <v>3.2</v>
+      </c>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="I11" s="6"/>
+      <c r="J11" s="22"/>
+      <c r="K11" s="22"/>
+      <c r="L11" s="22"/>
+      <c r="M11" s="22"/>
+      <c r="N11" s="22"/>
+      <c r="O11" s="22"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B12" s="6"/>
+      <c r="C12" s="6">
+        <v>3.3</v>
+      </c>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="I12" s="6"/>
+      <c r="J12" s="22"/>
+      <c r="K12" s="22"/>
+      <c r="L12" s="22"/>
+      <c r="M12" s="22"/>
+      <c r="N12" s="22"/>
+      <c r="O12" s="22"/>
+    </row>
+    <row r="13" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="20"/>
+      <c r="B13" s="18"/>
+      <c r="C13" s="18">
+        <v>3.4</v>
+      </c>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="F10" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="G10" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="H10" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="I10" s="9"/>
-      <c r="J10" s="26"/>
-      <c r="K10" s="26"/>
-      <c r="L10" s="26"/>
-      <c r="M10" s="26"/>
-      <c r="N10" s="26"/>
-      <c r="O10" s="26"/>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B11" s="7"/>
-      <c r="C11" s="7">
-        <v>3.2</v>
-      </c>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="F11" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="G11" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="H11" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="I11" s="7"/>
-      <c r="J11" s="27"/>
-      <c r="K11" s="27"/>
-      <c r="L11" s="27"/>
-      <c r="M11" s="27"/>
-      <c r="N11" s="27"/>
-      <c r="O11" s="27"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B12" s="7"/>
-      <c r="C12" s="7">
-        <v>3.3</v>
-      </c>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F12" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="G12" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="H12" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="I12" s="7"/>
-      <c r="J12" s="27"/>
-      <c r="K12" s="27"/>
-      <c r="L12" s="27"/>
-      <c r="M12" s="27"/>
-      <c r="N12" s="27"/>
-      <c r="O12" s="27"/>
-    </row>
-    <row r="13" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="25"/>
-      <c r="B13" s="23"/>
-      <c r="C13" s="23">
-        <v>3.4</v>
-      </c>
-      <c r="D13" s="23"/>
-      <c r="E13" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="F13" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="G13" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="H13" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="I13" s="23"/>
-      <c r="J13" s="30"/>
-      <c r="K13" s="30"/>
-      <c r="L13" s="30"/>
-      <c r="M13" s="30"/>
-      <c r="N13" s="30"/>
-      <c r="O13" s="30"/>
+      <c r="F13" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="G13" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="H13" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="I13" s="18"/>
+      <c r="J13" s="25"/>
+      <c r="K13" s="25"/>
+      <c r="L13" s="25"/>
+      <c r="M13" s="25"/>
+      <c r="N13" s="25"/>
+      <c r="O13" s="25"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>4</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" s="8">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="H14" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="24"/>
+      <c r="M14" s="24"/>
+      <c r="N14" s="24"/>
+      <c r="O14" s="24"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B15" s="6"/>
+      <c r="C15" s="6">
+        <v>4.2</v>
+      </c>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H15" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="23"/>
+      <c r="M15" s="23"/>
+      <c r="N15" s="23"/>
+      <c r="O15" s="23"/>
+    </row>
+    <row r="16" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="20"/>
+      <c r="B16" s="18"/>
+      <c r="C16" s="18">
+        <v>4.3</v>
+      </c>
+      <c r="D16" s="18"/>
+      <c r="E16" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="C14" s="9">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="F14" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="G14" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="H14" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="I14" s="9"/>
-      <c r="J14" s="9"/>
-      <c r="K14" s="9"/>
-      <c r="L14" s="29"/>
-      <c r="M14" s="29"/>
-      <c r="N14" s="29"/>
-      <c r="O14" s="29"/>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B15" s="7"/>
-      <c r="C15" s="7">
-        <v>4.2</v>
-      </c>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="F15" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="G15" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="H15" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="I15" s="7"/>
-      <c r="J15" s="7"/>
-      <c r="K15" s="7"/>
-      <c r="L15" s="28"/>
-      <c r="M15" s="28"/>
-      <c r="N15" s="28"/>
-      <c r="O15" s="28"/>
-    </row>
-    <row r="16" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="25"/>
-      <c r="B16" s="23"/>
-      <c r="C16" s="23">
-        <v>4.3</v>
-      </c>
-      <c r="D16" s="23"/>
-      <c r="E16" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="F16" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="G16" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="H16" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="I16" s="23"/>
-      <c r="J16" s="23"/>
-      <c r="K16" s="23"/>
-      <c r="L16" s="31"/>
-      <c r="M16" s="31"/>
-      <c r="N16" s="31"/>
-      <c r="O16" s="31"/>
+      <c r="F16" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="G16" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="H16" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="I16" s="18"/>
+      <c r="J16" s="18"/>
+      <c r="K16" s="18"/>
+      <c r="L16" s="26"/>
+      <c r="M16" s="26"/>
+      <c r="N16" s="26"/>
+      <c r="O16" s="26"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>5</v>
       </c>
-      <c r="B17" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="C17" s="9">
+      <c r="B17" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C17" s="8">
         <v>5.0999999999999996</v>
       </c>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="F17" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="G17" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="H17" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="I17" s="9"/>
-      <c r="J17" s="26"/>
-      <c r="K17" s="26"/>
-      <c r="L17" s="26"/>
-      <c r="M17" s="9"/>
-      <c r="N17" s="9"/>
-      <c r="O17" s="9"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="F17" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="G17" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="H17" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="I17" s="8"/>
+      <c r="J17" s="21"/>
+      <c r="K17" s="21"/>
+      <c r="L17" s="21"/>
+      <c r="M17" s="8"/>
+      <c r="N17" s="8"/>
+      <c r="O17" s="8"/>
     </row>
     <row r="18" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="25"/>
-      <c r="B18" s="23"/>
-      <c r="C18" s="23">
+      <c r="A18" s="20"/>
+      <c r="B18" s="18"/>
+      <c r="C18" s="18">
         <v>5.2</v>
       </c>
-      <c r="D18" s="23"/>
-      <c r="E18" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="F18" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="G18" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="H18" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="I18" s="23"/>
-      <c r="J18" s="30"/>
-      <c r="K18" s="30"/>
-      <c r="L18" s="30"/>
-      <c r="M18" s="23"/>
-      <c r="N18" s="23"/>
-      <c r="O18" s="23"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="F18" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="G18" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="H18" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="I18" s="18"/>
+      <c r="J18" s="25"/>
+      <c r="K18" s="25"/>
+      <c r="L18" s="25"/>
+      <c r="M18" s="18"/>
+      <c r="N18" s="18"/>
+      <c r="O18" s="18"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>6</v>
       </c>
-      <c r="B19" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="C19" s="9">
+      <c r="B19" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C19" s="8">
         <v>6.1</v>
       </c>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="F19" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="G19" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="H19" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="I19" s="9"/>
-      <c r="J19" s="29"/>
-      <c r="K19" s="29"/>
-      <c r="L19" s="29"/>
-      <c r="M19" s="29"/>
-      <c r="N19" s="29"/>
-      <c r="O19" s="29"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="F19" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="G19" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="H19" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="I19" s="8"/>
+      <c r="J19" s="24"/>
+      <c r="K19" s="24"/>
+      <c r="L19" s="24"/>
+      <c r="M19" s="24"/>
+      <c r="N19" s="24"/>
+      <c r="O19" s="24"/>
     </row>
     <row r="20" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="25"/>
-      <c r="B20" s="32"/>
-      <c r="C20" s="32"/>
-      <c r="D20" s="32"/>
-      <c r="E20" s="32"/>
-      <c r="F20" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="G20" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="H20" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="I20" s="32"/>
-      <c r="J20" s="33"/>
-      <c r="K20" s="33"/>
-      <c r="L20" s="33"/>
-      <c r="M20" s="33"/>
-      <c r="N20" s="33"/>
-      <c r="O20" s="33"/>
+      <c r="A20" s="20"/>
+      <c r="B20" s="27"/>
+      <c r="C20" s="27"/>
+      <c r="D20" s="27"/>
+      <c r="E20" s="27"/>
+      <c r="F20" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="G20" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="H20" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="I20" s="27"/>
+      <c r="J20" s="28"/>
+      <c r="K20" s="28"/>
+      <c r="L20" s="28"/>
+      <c r="M20" s="28"/>
+      <c r="N20" s="28"/>
+      <c r="O20" s="28"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>7</v>
       </c>
-      <c r="B21" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="C21" s="9">
+      <c r="B21" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C21" s="8">
         <v>7.1</v>
       </c>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="F21" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="G21" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="H21" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="I21" s="9"/>
-      <c r="J21" s="9"/>
-      <c r="K21" s="9"/>
-      <c r="L21" s="29"/>
-      <c r="M21" s="29"/>
-      <c r="N21" s="29"/>
-      <c r="O21" s="29"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="F21" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="G21" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="H21" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="I21" s="8"/>
+      <c r="J21" s="8"/>
+      <c r="K21" s="8"/>
+      <c r="L21" s="24"/>
+      <c r="M21" s="24"/>
+      <c r="N21" s="24"/>
+      <c r="O21" s="24"/>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B22" s="7"/>
-      <c r="C22" s="7">
+      <c r="B22" s="6"/>
+      <c r="C22" s="6">
         <v>7.2</v>
       </c>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="G22" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="H22" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="I22" s="7"/>
-      <c r="J22" s="7"/>
-      <c r="K22" s="7"/>
-      <c r="L22" s="28"/>
-      <c r="M22" s="28"/>
-      <c r="N22" s="28"/>
-      <c r="O22" s="28"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H22" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="I22" s="6"/>
+      <c r="J22" s="6"/>
+      <c r="K22" s="6"/>
+      <c r="L22" s="23"/>
+      <c r="M22" s="23"/>
+      <c r="N22" s="23"/>
+      <c r="O22" s="23"/>
     </row>
     <row r="23" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="25"/>
-      <c r="B23" s="23"/>
-      <c r="C23" s="23">
+      <c r="A23" s="20"/>
+      <c r="B23" s="18"/>
+      <c r="C23" s="18">
         <v>7.3</v>
       </c>
-      <c r="D23" s="23"/>
-      <c r="E23" s="23"/>
-      <c r="F23" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="G23" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="H23" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="I23" s="23"/>
-      <c r="J23" s="23"/>
-      <c r="K23" s="23"/>
-      <c r="L23" s="31"/>
-      <c r="M23" s="31"/>
-      <c r="N23" s="31"/>
-      <c r="O23" s="31"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="G23" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="H23" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="I23" s="18"/>
+      <c r="J23" s="18"/>
+      <c r="K23" s="18"/>
+      <c r="L23" s="26"/>
+      <c r="M23" s="26"/>
+      <c r="N23" s="26"/>
+      <c r="O23" s="26"/>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>8</v>
       </c>
-      <c r="B24" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="C24" s="9">
+      <c r="B24" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C24" s="8">
         <v>8.1</v>
       </c>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="F24" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="G24" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="H24" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="I24" s="9"/>
-      <c r="J24" s="9"/>
-      <c r="K24" s="9"/>
-      <c r="L24" s="9"/>
-      <c r="M24" s="26"/>
-      <c r="N24" s="26"/>
-      <c r="O24" s="26"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="F24" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="G24" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="H24" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="I24" s="8"/>
+      <c r="J24" s="8"/>
+      <c r="K24" s="8"/>
+      <c r="L24" s="8"/>
+      <c r="M24" s="21"/>
+      <c r="N24" s="21"/>
+      <c r="O24" s="21"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B25" s="7"/>
-      <c r="C25" s="7">
+      <c r="B25" s="6"/>
+      <c r="C25" s="6">
         <v>8.1999999999999993</v>
       </c>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="G25" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="H25" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="I25" s="7"/>
-      <c r="J25" s="7"/>
-      <c r="K25" s="7"/>
-      <c r="L25" s="7"/>
-      <c r="M25" s="27"/>
-      <c r="N25" s="27"/>
-      <c r="O25" s="27"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H25" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="I25" s="6"/>
+      <c r="J25" s="6"/>
+      <c r="K25" s="6"/>
+      <c r="L25" s="6"/>
+      <c r="M25" s="22"/>
+      <c r="N25" s="22"/>
+      <c r="O25" s="22"/>
     </row>
     <row r="26" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="25"/>
-      <c r="B26" s="23"/>
-      <c r="C26" s="23">
+      <c r="A26" s="20"/>
+      <c r="B26" s="18"/>
+      <c r="C26" s="18">
         <v>8.3000000000000007</v>
       </c>
-      <c r="D26" s="23"/>
-      <c r="E26" s="23"/>
-      <c r="F26" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="G26" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="H26" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="I26" s="23"/>
-      <c r="J26" s="23"/>
-      <c r="K26" s="23"/>
-      <c r="L26" s="23"/>
-      <c r="M26" s="30"/>
-      <c r="N26" s="30"/>
-      <c r="O26" s="30"/>
+      <c r="D26" s="18"/>
+      <c r="E26" s="18"/>
+      <c r="F26" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="G26" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="H26" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="I26" s="18"/>
+      <c r="J26" s="18"/>
+      <c r="K26" s="18"/>
+      <c r="L26" s="18"/>
+      <c r="M26" s="25"/>
+      <c r="N26" s="25"/>
+      <c r="O26" s="25"/>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B27" s="9"/>
-      <c r="C27" s="9"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="9"/>
-      <c r="F27" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="G27" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="H27" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="I27" s="9"/>
-      <c r="J27" s="9"/>
-      <c r="K27" s="9"/>
-      <c r="L27" s="9"/>
-      <c r="M27" s="9"/>
-      <c r="N27" s="9"/>
-      <c r="O27" s="9"/>
+      <c r="B27" s="8"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="G27" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="H27" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="I27" s="8"/>
+      <c r="J27" s="8"/>
+      <c r="K27" s="8"/>
+      <c r="L27" s="8"/>
+      <c r="M27" s="8"/>
+      <c r="N27" s="8"/>
+      <c r="O27" s="8"/>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B28" s="7"/>
-      <c r="C28" s="7"/>
-      <c r="D28" s="7"/>
-      <c r="E28" s="7"/>
-      <c r="F28" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="G28" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="H28" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="I28" s="7"/>
-      <c r="J28" s="7"/>
-      <c r="K28" s="7"/>
-      <c r="L28" s="7"/>
-      <c r="M28" s="7"/>
-      <c r="N28" s="7"/>
-      <c r="O28" s="7"/>
+      <c r="B28" s="6"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H28" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="I28" s="6"/>
+      <c r="J28" s="6"/>
+      <c r="K28" s="6"/>
+      <c r="L28" s="6"/>
+      <c r="M28" s="6"/>
+      <c r="N28" s="6"/>
+      <c r="O28" s="6"/>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B29" s="7"/>
-      <c r="C29" s="7"/>
-      <c r="D29" s="7"/>
-      <c r="E29" s="7"/>
-      <c r="F29" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="G29" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="H29" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="I29" s="7"/>
-      <c r="J29" s="7"/>
-      <c r="K29" s="7"/>
-      <c r="L29" s="7"/>
-      <c r="M29" s="7"/>
-      <c r="N29" s="7"/>
-      <c r="O29" s="7"/>
+      <c r="B29" s="6"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H29" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="I29" s="6"/>
+      <c r="J29" s="6"/>
+      <c r="K29" s="6"/>
+      <c r="L29" s="6"/>
+      <c r="M29" s="6"/>
+      <c r="N29" s="6"/>
+      <c r="O29" s="6"/>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B30" s="7"/>
-      <c r="C30" s="7"/>
-      <c r="D30" s="7"/>
-      <c r="E30" s="7"/>
-      <c r="F30" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="G30" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="H30" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="I30" s="7"/>
-      <c r="J30" s="7"/>
-      <c r="K30" s="7"/>
-      <c r="L30" s="7"/>
-      <c r="M30" s="7"/>
-      <c r="N30" s="7"/>
-      <c r="O30" s="7"/>
+      <c r="B30" s="6"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H30" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="I30" s="6"/>
+      <c r="J30" s="6"/>
+      <c r="K30" s="6"/>
+      <c r="L30" s="6"/>
+      <c r="M30" s="6"/>
+      <c r="N30" s="6"/>
+      <c r="O30" s="6"/>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A31" s="7"/>
-      <c r="B31" s="7"/>
-      <c r="C31" s="7"/>
-      <c r="D31" s="7"/>
-      <c r="E31" s="7"/>
-      <c r="F31" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="G31" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="H31" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="I31" s="7"/>
-      <c r="J31" s="7"/>
-      <c r="K31" s="7"/>
-      <c r="L31" s="7"/>
-      <c r="M31" s="7"/>
-      <c r="N31" s="7"/>
-      <c r="O31" s="7"/>
-    </row>
-    <row r="32" spans="1:15" s="25" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="23"/>
-      <c r="B32" s="23"/>
-      <c r="C32" s="23"/>
-      <c r="D32" s="23"/>
-      <c r="E32" s="23"/>
-      <c r="F32" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="G32" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="H32" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="I32" s="23"/>
-      <c r="J32" s="23"/>
-      <c r="K32" s="23"/>
-      <c r="L32" s="23"/>
-      <c r="M32" s="23"/>
-      <c r="N32" s="23"/>
-      <c r="O32" s="23"/>
+      <c r="A31" s="6"/>
+      <c r="B31" s="6"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H31" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="I31" s="6"/>
+      <c r="J31" s="6"/>
+      <c r="K31" s="6"/>
+      <c r="L31" s="6"/>
+      <c r="M31" s="6"/>
+      <c r="N31" s="6"/>
+      <c r="O31" s="6"/>
+    </row>
+    <row r="32" spans="1:15" s="20" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="18"/>
+      <c r="B32" s="18"/>
+      <c r="C32" s="18"/>
+      <c r="D32" s="18"/>
+      <c r="E32" s="18"/>
+      <c r="F32" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="G32" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="H32" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="I32" s="18"/>
+      <c r="J32" s="18"/>
+      <c r="K32" s="18"/>
+      <c r="L32" s="18"/>
+      <c r="M32" s="18"/>
+      <c r="N32" s="18"/>
+      <c r="O32" s="18"/>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A33" s="3"/>
@@ -1757,325 +1779,327 @@
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.2">
       <c r="F35" s="1">
+        <v>44725</v>
+      </c>
+      <c r="G35" s="1">
         <v>44732</v>
       </c>
-      <c r="G35" s="1">
+      <c r="H35" s="1">
         <v>44739</v>
       </c>
-      <c r="H35" s="1">
+      <c r="I35" s="1">
         <v>44746</v>
       </c>
-      <c r="I35" s="1">
+      <c r="J35" s="1">
         <v>44753</v>
       </c>
-      <c r="J35" s="1">
+      <c r="K35" s="1">
         <v>44760</v>
       </c>
-      <c r="K35" s="1">
+      <c r="L35" s="1">
         <v>44767</v>
       </c>
-      <c r="L35" s="1">
+      <c r="M35" s="1">
         <v>44774</v>
       </c>
-      <c r="M35" s="1">
+      <c r="N35" s="1">
         <v>44781</v>
       </c>
-      <c r="N35" s="1">
+      <c r="O35" s="1">
         <v>44788</v>
       </c>
-      <c r="O35" s="1">
-        <v>44795</v>
-      </c>
-      <c r="P35" s="15" t="s">
-        <v>28</v>
+      <c r="P35" s="14" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>32</v>
-      </c>
-      <c r="B36" s="11"/>
-      <c r="C36" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="D36" s="21" t="s">
-        <v>51</v>
-      </c>
-      <c r="E36" s="12"/>
-      <c r="F36" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="B36" s="10"/>
+      <c r="C36" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="D36" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="E36" s="11"/>
+      <c r="F36" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="G36" s="12" t="s">
+      <c r="G36" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="H36" s="12" t="s">
+      <c r="H36" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="I36" s="12" t="s">
+      <c r="I36" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="J36" s="12" t="s">
+      <c r="J36" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="K36" s="12" t="s">
+      <c r="K36" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="L36" s="12" t="s">
+      <c r="L36" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="M36" s="12" t="s">
+      <c r="M36" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="N36" s="12" t="s">
+      <c r="N36" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="O36" s="17" t="s">
+      <c r="O36" s="15" t="s">
         <v>19</v>
       </c>
       <c r="P36" s="4" t="s">
-        <v>29</v>
+        <v>59</v>
       </c>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B37" s="9"/>
-      <c r="C37" s="9"/>
-      <c r="D37" s="9"/>
-      <c r="E37" s="9"/>
-      <c r="F37" s="9"/>
-      <c r="G37" s="9"/>
-      <c r="H37" s="9"/>
-      <c r="I37" s="9"/>
-      <c r="J37" s="9"/>
-      <c r="K37" s="9"/>
-      <c r="L37" s="9"/>
-      <c r="M37" s="9"/>
-      <c r="N37" s="9"/>
-      <c r="O37" s="14"/>
-      <c r="P37" s="16"/>
+      <c r="B37" s="8"/>
+      <c r="C37" s="8"/>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
+      <c r="H37" s="8"/>
+      <c r="I37" s="8"/>
+      <c r="J37" s="8"/>
+      <c r="K37" s="8"/>
+      <c r="L37" s="8"/>
+      <c r="M37" s="8"/>
+      <c r="N37" s="8"/>
+      <c r="O37" s="13"/>
+      <c r="P37" s="32" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B38" s="7"/>
-      <c r="C38" s="7"/>
-      <c r="D38" s="7"/>
-      <c r="E38" s="7"/>
-      <c r="F38" s="7"/>
-      <c r="G38" s="7"/>
-      <c r="H38" s="7"/>
-      <c r="I38" s="7"/>
-      <c r="J38" s="7"/>
-      <c r="K38" s="7"/>
-      <c r="L38" s="7"/>
-      <c r="M38" s="7"/>
-      <c r="N38" s="7"/>
-      <c r="O38" s="7"/>
+      <c r="B38" s="6"/>
+      <c r="C38" s="6"/>
+      <c r="D38" s="6"/>
+      <c r="E38" s="6"/>
+      <c r="F38" s="6"/>
+      <c r="G38" s="6"/>
+      <c r="H38" s="6"/>
+      <c r="I38" s="6"/>
+      <c r="J38" s="6"/>
+      <c r="K38" s="6"/>
+      <c r="L38" s="6"/>
+      <c r="M38" s="6"/>
+      <c r="N38" s="6"/>
+      <c r="O38" s="6"/>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B39" s="7"/>
-      <c r="C39" s="7"/>
-      <c r="D39" s="7"/>
-      <c r="E39" s="7"/>
-      <c r="F39" s="7"/>
-      <c r="G39" s="7"/>
-      <c r="H39" s="7"/>
-      <c r="I39" s="7"/>
-      <c r="J39" s="7"/>
-      <c r="K39" s="7"/>
-      <c r="L39" s="7"/>
-      <c r="M39" s="7"/>
-      <c r="N39" s="7"/>
-      <c r="O39" s="7"/>
+      <c r="B39" s="6"/>
+      <c r="C39" s="6"/>
+      <c r="D39" s="6"/>
+      <c r="E39" s="6"/>
+      <c r="F39" s="6"/>
+      <c r="G39" s="6"/>
+      <c r="H39" s="6"/>
+      <c r="I39" s="6"/>
+      <c r="J39" s="6"/>
+      <c r="K39" s="6"/>
+      <c r="L39" s="6"/>
+      <c r="M39" s="6"/>
+      <c r="N39" s="6"/>
+      <c r="O39" s="6"/>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B40" s="7"/>
-      <c r="C40" s="7"/>
-      <c r="D40" s="7"/>
-      <c r="E40" s="7"/>
-      <c r="F40" s="7"/>
-      <c r="G40" s="7"/>
-      <c r="H40" s="7"/>
-      <c r="I40" s="7"/>
-      <c r="J40" s="7"/>
-      <c r="K40" s="7"/>
-      <c r="L40" s="7"/>
-      <c r="M40" s="7"/>
-      <c r="N40" s="7"/>
-      <c r="O40" s="7"/>
+      <c r="B40" s="6"/>
+      <c r="C40" s="6"/>
+      <c r="D40" s="6"/>
+      <c r="E40" s="6"/>
+      <c r="F40" s="6"/>
+      <c r="G40" s="6"/>
+      <c r="H40" s="6"/>
+      <c r="I40" s="6"/>
+      <c r="J40" s="6"/>
+      <c r="K40" s="6"/>
+      <c r="L40" s="6"/>
+      <c r="M40" s="6"/>
+      <c r="N40" s="6"/>
+      <c r="O40" s="6"/>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B41" s="7"/>
-      <c r="C41" s="7"/>
-      <c r="D41" s="7"/>
-      <c r="E41" s="7"/>
-      <c r="F41" s="7"/>
-      <c r="G41" s="7"/>
-      <c r="H41" s="7"/>
-      <c r="I41" s="7"/>
-      <c r="J41" s="7"/>
-      <c r="K41" s="7"/>
-      <c r="L41" s="7"/>
-      <c r="M41" s="7"/>
-      <c r="N41" s="7"/>
-      <c r="O41" s="7"/>
+      <c r="B41" s="6"/>
+      <c r="C41" s="6"/>
+      <c r="D41" s="6"/>
+      <c r="E41" s="6"/>
+      <c r="F41" s="6"/>
+      <c r="G41" s="6"/>
+      <c r="H41" s="6"/>
+      <c r="I41" s="6"/>
+      <c r="J41" s="6"/>
+      <c r="K41" s="6"/>
+      <c r="L41" s="6"/>
+      <c r="M41" s="6"/>
+      <c r="N41" s="6"/>
+      <c r="O41" s="6"/>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B42" s="7"/>
-      <c r="C42" s="7"/>
-      <c r="D42" s="7"/>
-      <c r="E42" s="7"/>
-      <c r="F42" s="7"/>
-      <c r="G42" s="7"/>
-      <c r="H42" s="7"/>
-      <c r="I42" s="7"/>
-      <c r="J42" s="7"/>
-      <c r="K42" s="7"/>
-      <c r="L42" s="7"/>
-      <c r="M42" s="7"/>
-      <c r="N42" s="7"/>
-      <c r="O42" s="7"/>
+      <c r="B42" s="6"/>
+      <c r="C42" s="6"/>
+      <c r="D42" s="6"/>
+      <c r="E42" s="6"/>
+      <c r="F42" s="6"/>
+      <c r="G42" s="6"/>
+      <c r="H42" s="6"/>
+      <c r="I42" s="6"/>
+      <c r="J42" s="6"/>
+      <c r="K42" s="6"/>
+      <c r="L42" s="6"/>
+      <c r="M42" s="6"/>
+      <c r="N42" s="6"/>
+      <c r="O42" s="6"/>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B43" s="7"/>
-      <c r="C43" s="7"/>
-      <c r="D43" s="7"/>
-      <c r="E43" s="7"/>
-      <c r="F43" s="7"/>
-      <c r="G43" s="7"/>
-      <c r="H43" s="7"/>
-      <c r="I43" s="7"/>
-      <c r="J43" s="7"/>
-      <c r="K43" s="7"/>
-      <c r="L43" s="7"/>
-      <c r="M43" s="7"/>
-      <c r="N43" s="7"/>
-      <c r="O43" s="7"/>
+      <c r="B43" s="6"/>
+      <c r="C43" s="6"/>
+      <c r="D43" s="6"/>
+      <c r="E43" s="6"/>
+      <c r="F43" s="6"/>
+      <c r="G43" s="6"/>
+      <c r="H43" s="6"/>
+      <c r="I43" s="6"/>
+      <c r="J43" s="6"/>
+      <c r="K43" s="6"/>
+      <c r="L43" s="6"/>
+      <c r="M43" s="6"/>
+      <c r="N43" s="6"/>
+      <c r="O43" s="6"/>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B44" s="7"/>
-      <c r="C44" s="7"/>
-      <c r="D44" s="7"/>
-      <c r="E44" s="7"/>
-      <c r="F44" s="7"/>
-      <c r="G44" s="7"/>
-      <c r="H44" s="7"/>
-      <c r="I44" s="7"/>
-      <c r="J44" s="7"/>
-      <c r="K44" s="7"/>
-      <c r="L44" s="7"/>
-      <c r="M44" s="7"/>
-      <c r="N44" s="7"/>
-      <c r="O44" s="7"/>
+      <c r="B44" s="6"/>
+      <c r="C44" s="6"/>
+      <c r="D44" s="6"/>
+      <c r="E44" s="6"/>
+      <c r="F44" s="6"/>
+      <c r="G44" s="6"/>
+      <c r="H44" s="6"/>
+      <c r="I44" s="6"/>
+      <c r="J44" s="6"/>
+      <c r="K44" s="6"/>
+      <c r="L44" s="6"/>
+      <c r="M44" s="6"/>
+      <c r="N44" s="6"/>
+      <c r="O44" s="6"/>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B45" s="7"/>
-      <c r="C45" s="7"/>
-      <c r="D45" s="7"/>
-      <c r="E45" s="7"/>
-      <c r="F45" s="7"/>
-      <c r="G45" s="7"/>
-      <c r="H45" s="7"/>
-      <c r="I45" s="7"/>
-      <c r="J45" s="7"/>
-      <c r="K45" s="7"/>
-      <c r="L45" s="7"/>
-      <c r="M45" s="7"/>
-      <c r="N45" s="7"/>
-      <c r="O45" s="7"/>
+      <c r="B45" s="6"/>
+      <c r="C45" s="6"/>
+      <c r="D45" s="6"/>
+      <c r="E45" s="6"/>
+      <c r="F45" s="6"/>
+      <c r="G45" s="6"/>
+      <c r="H45" s="6"/>
+      <c r="I45" s="6"/>
+      <c r="J45" s="6"/>
+      <c r="K45" s="6"/>
+      <c r="L45" s="6"/>
+      <c r="M45" s="6"/>
+      <c r="N45" s="6"/>
+      <c r="O45" s="6"/>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B46" s="7"/>
-      <c r="C46" s="7"/>
-      <c r="D46" s="7"/>
-      <c r="E46" s="7"/>
-      <c r="F46" s="7"/>
-      <c r="G46" s="7"/>
-      <c r="H46" s="7"/>
-      <c r="I46" s="7"/>
-      <c r="J46" s="7"/>
-      <c r="K46" s="7"/>
-      <c r="L46" s="7"/>
-      <c r="M46" s="7"/>
-      <c r="N46" s="7"/>
-      <c r="O46" s="7"/>
+      <c r="B46" s="6"/>
+      <c r="C46" s="6"/>
+      <c r="D46" s="6"/>
+      <c r="E46" s="6"/>
+      <c r="F46" s="6"/>
+      <c r="G46" s="6"/>
+      <c r="H46" s="6"/>
+      <c r="I46" s="6"/>
+      <c r="J46" s="6"/>
+      <c r="K46" s="6"/>
+      <c r="L46" s="6"/>
+      <c r="M46" s="6"/>
+      <c r="N46" s="6"/>
+      <c r="O46" s="6"/>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B47" s="7"/>
-      <c r="C47" s="7"/>
-      <c r="D47" s="7"/>
-      <c r="E47" s="7"/>
-      <c r="F47" s="7"/>
-      <c r="G47" s="7"/>
-      <c r="H47" s="7"/>
-      <c r="I47" s="7"/>
-      <c r="J47" s="7"/>
-      <c r="K47" s="7"/>
-      <c r="L47" s="7"/>
-      <c r="M47" s="7"/>
-      <c r="N47" s="7"/>
-      <c r="O47" s="7"/>
+      <c r="B47" s="6"/>
+      <c r="C47" s="6"/>
+      <c r="D47" s="6"/>
+      <c r="E47" s="6"/>
+      <c r="F47" s="6"/>
+      <c r="G47" s="6"/>
+      <c r="H47" s="6"/>
+      <c r="I47" s="6"/>
+      <c r="J47" s="6"/>
+      <c r="K47" s="6"/>
+      <c r="L47" s="6"/>
+      <c r="M47" s="6"/>
+      <c r="N47" s="6"/>
+      <c r="O47" s="6"/>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B48" s="7"/>
-      <c r="C48" s="7"/>
-      <c r="D48" s="7"/>
-      <c r="E48" s="7"/>
-      <c r="F48" s="7"/>
-      <c r="G48" s="7"/>
-      <c r="H48" s="7"/>
-      <c r="I48" s="7"/>
-      <c r="J48" s="7"/>
-      <c r="K48" s="7"/>
-      <c r="L48" s="7"/>
-      <c r="M48" s="7"/>
-      <c r="N48" s="7"/>
-      <c r="O48" s="7"/>
+      <c r="B48" s="6"/>
+      <c r="C48" s="6"/>
+      <c r="D48" s="6"/>
+      <c r="E48" s="6"/>
+      <c r="F48" s="6"/>
+      <c r="G48" s="6"/>
+      <c r="H48" s="6"/>
+      <c r="I48" s="6"/>
+      <c r="J48" s="6"/>
+      <c r="K48" s="6"/>
+      <c r="L48" s="6"/>
+      <c r="M48" s="6"/>
+      <c r="N48" s="6"/>
+      <c r="O48" s="6"/>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B49" s="7"/>
-      <c r="C49" s="7"/>
-      <c r="D49" s="7"/>
-      <c r="E49" s="7"/>
-      <c r="F49" s="7"/>
-      <c r="G49" s="7"/>
-      <c r="H49" s="7"/>
-      <c r="I49" s="7"/>
-      <c r="J49" s="7"/>
-      <c r="K49" s="7"/>
-      <c r="L49" s="7"/>
-      <c r="M49" s="7"/>
-      <c r="N49" s="7"/>
-      <c r="O49" s="7"/>
+      <c r="B49" s="6"/>
+      <c r="C49" s="6"/>
+      <c r="D49" s="6"/>
+      <c r="E49" s="6"/>
+      <c r="F49" s="6"/>
+      <c r="G49" s="6"/>
+      <c r="H49" s="6"/>
+      <c r="I49" s="6"/>
+      <c r="J49" s="6"/>
+      <c r="K49" s="6"/>
+      <c r="L49" s="6"/>
+      <c r="M49" s="6"/>
+      <c r="N49" s="6"/>
+      <c r="O49" s="6"/>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B50" s="7"/>
-      <c r="C50" s="7"/>
-      <c r="D50" s="7"/>
-      <c r="E50" s="7"/>
-      <c r="F50" s="7"/>
-      <c r="G50" s="7"/>
-      <c r="H50" s="7"/>
-      <c r="I50" s="7"/>
-      <c r="J50" s="7"/>
-      <c r="K50" s="7"/>
-      <c r="L50" s="7"/>
-      <c r="M50" s="7"/>
-      <c r="N50" s="7"/>
-      <c r="O50" s="7"/>
+      <c r="B50" s="6"/>
+      <c r="C50" s="6"/>
+      <c r="D50" s="6"/>
+      <c r="E50" s="6"/>
+      <c r="F50" s="6"/>
+      <c r="G50" s="6"/>
+      <c r="H50" s="6"/>
+      <c r="I50" s="6"/>
+      <c r="J50" s="6"/>
+      <c r="K50" s="6"/>
+      <c r="L50" s="6"/>
+      <c r="M50" s="6"/>
+      <c r="N50" s="6"/>
+      <c r="O50" s="6"/>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B51" s="7"/>
-      <c r="C51" s="7"/>
-      <c r="D51" s="7"/>
-      <c r="E51" s="7"/>
-      <c r="F51" s="7"/>
-      <c r="G51" s="7"/>
-      <c r="H51" s="7"/>
-      <c r="I51" s="7"/>
-      <c r="J51" s="7"/>
-      <c r="K51" s="7"/>
-      <c r="L51" s="7"/>
-      <c r="M51" s="7"/>
-      <c r="N51" s="7"/>
-      <c r="O51" s="7"/>
+      <c r="B51" s="6"/>
+      <c r="C51" s="6"/>
+      <c r="D51" s="6"/>
+      <c r="E51" s="6"/>
+      <c r="F51" s="6"/>
+      <c r="G51" s="6"/>
+      <c r="H51" s="6"/>
+      <c r="I51" s="6"/>
+      <c r="J51" s="6"/>
+      <c r="K51" s="6"/>
+      <c r="L51" s="6"/>
+      <c r="M51" s="6"/>
+      <c r="N51" s="6"/>
+      <c r="O51" s="6"/>
     </row>
     <row r="52" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B52" s="2"/>
@@ -2097,18 +2121,18 @@
       <c r="E53" s="3"/>
       <c r="F53" s="3"/>
       <c r="N53" t="s">
+        <v>25</v>
+      </c>
+      <c r="P53" s="33" t="s">
         <v>26</v>
-      </c>
-      <c r="P53" s="18" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B54" t="s">
         <v>22</v>
       </c>
-      <c r="P54" s="19" t="s">
-        <v>30</v>
+      <c r="P54" s="34" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.2">
@@ -2118,56 +2142,58 @@
       <c r="G55" s="1">
         <v>44809</v>
       </c>
-      <c r="P55" s="20"/>
+      <c r="P55" s="35" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>32</v>
-      </c>
-      <c r="B56" s="11"/>
-      <c r="C56" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="D56" s="21"/>
-      <c r="E56" s="12"/>
-      <c r="F56" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="B56" s="10"/>
+      <c r="C56" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="D56" s="16"/>
+      <c r="E56" s="11"/>
+      <c r="F56" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="G56" s="13" t="s">
+      <c r="G56" s="12" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B57" s="9"/>
-      <c r="C57" s="9"/>
-      <c r="D57" s="9"/>
-      <c r="E57" s="9"/>
-      <c r="F57" s="9"/>
-      <c r="G57" s="9"/>
+      <c r="B57" s="8"/>
+      <c r="C57" s="8"/>
+      <c r="D57" s="8"/>
+      <c r="E57" s="8"/>
+      <c r="F57" s="8"/>
+      <c r="G57" s="8"/>
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B58" s="7"/>
-      <c r="C58" s="7"/>
-      <c r="D58" s="7"/>
-      <c r="E58" s="7"/>
-      <c r="F58" s="7"/>
-      <c r="G58" s="7"/>
+      <c r="B58" s="6"/>
+      <c r="C58" s="6"/>
+      <c r="D58" s="6"/>
+      <c r="E58" s="6"/>
+      <c r="F58" s="6"/>
+      <c r="G58" s="6"/>
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B59" s="7"/>
-      <c r="C59" s="7"/>
-      <c r="D59" s="7"/>
-      <c r="E59" s="7"/>
-      <c r="F59" s="7"/>
-      <c r="G59" s="7"/>
+      <c r="B59" s="6"/>
+      <c r="C59" s="6"/>
+      <c r="D59" s="6"/>
+      <c r="E59" s="6"/>
+      <c r="F59" s="6"/>
+      <c r="G59" s="6"/>
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B60" s="7"/>
-      <c r="C60" s="7"/>
-      <c r="D60" s="7"/>
-      <c r="E60" s="7"/>
-      <c r="F60" s="7"/>
-      <c r="G60" s="7"/>
+      <c r="B60" s="6"/>
+      <c r="C60" s="6"/>
+      <c r="D60" s="6"/>
+      <c r="E60" s="6"/>
+      <c r="F60" s="6"/>
+      <c r="G60" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
